--- a/GATEWAY/A1#111SOFTWAREINSIDESRLXX/HEALTH_INSIDE/SADI_HEALTH/V.1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111SOFTWAREINSIDESRLXX/HEALTH_INSIDE/SADI_HEALTH/V.1.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b0fb4e0f9ade9dc/Desktop/Nuova cartella (2)/Software Inside srl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alleg\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="380" documentId="11_D02697B058064E8558B1D8CE05CFACF2181887E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D993C44-7F61-41EE-8CF7-67AAE5070FDF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021E0494-870E-40C4-9276-D05EBE7023D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="193">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -466,12 +466,6 @@
     <t>Il campo action_id non Ã¨ corretto</t>
   </si>
   <si>
-    <t>L’applicativo risponde con un codice di errore e il messaggio “Campo token JWT non valido” seguito dal motivo dell’errore. Il referto non viene inviato.</t>
-  </si>
-  <si>
-    <t>In caso di timeout con il gateway il process prosegue, il referto viene salvato a database ma non inviato</t>
-  </si>
-  <si>
     <t>Wednesday 25 October 2023 15:31:32 GMT+02:00 DST</t>
   </si>
   <si>
@@ -751,9 +745,6 @@
     <t>Nel caso in  cui il file XML CDA2 prodotto non abbia l'elemento entry nella sezione Prestazioni, viene inviato un errore di generazione del file CDA2. Si prepara successivamente l'intervento di un tecnico.</t>
   </si>
   <si>
-    <t>Nel caso in  cui il file XML CDA2 prodotto non abbia l'elemento text nella sezione Quesito Diagnostico, viene inviato un errore di generazione del file CDA2. Si prepara successivamente l'intervento di un tecnico.</t>
-  </si>
-  <si>
     <t>Nel caso in  cui il file XML CDA2 prodotto non abbia la sezione Referto, viene inviato un errore di generazione del file CDA2. Si prepara successivamente l'intervento di un tecnico.</t>
   </si>
   <si>
@@ -767,6 +758,15 @@
   </si>
   <si>
     <t>Nel caso in  cui il file XML CDA2 prodotto non abbia il comune di residenza del paziente, viene inviato un errore di generazione del file CDA2. Si prepara successivamente l'intervento di un tecnico.</t>
+  </si>
+  <si>
+    <t>In caso di timeout con il gateway il processo prosegue, il referto viene salvato a database ma non inviato. L'utente riceve un messaggio e viene informato che potrà ritentare in un secondo momento l'invio del referto al FSE. Se il problema persiste, l'utente viene informato di contattare il servizio di assistenza per effettuare tutte le verifiche del caso</t>
+  </si>
+  <si>
+    <t>L’applicativo risponde con un codice di errore e il messaggio “Campo token JWT non valido” seguito dal motivo dell’errore. Il referto non viene inviato e resta salvato a database. Un messaggio arriva all'utente, il quale può contattare il servizio di assistenza per effettuare le verifiche del caso</t>
+  </si>
+  <si>
+    <t>Nel caso in  cui il file XML CDA2 prodotto non abbia l'elemento text nella sezione Quesito Diagnostico, viene inviato un errore di generazione del file CDA2. Si prepara successivamente l'intervento di un tecnico. Essendo il campo text obbligatorio ed in questo caso richiesto a front end, se questo elemento non viene compilato nel file xml significa che vi è un errore nel programma e per questo è necessario l'intervento di un operatore</t>
   </si>
 </sst>
 </file>
@@ -1121,6 +1121,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1142,9 +1145,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1221,10 +1221,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1446,10 +1442,10 @@
   <dimension ref="A1:T626"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="9" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="9" topLeftCell="O27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I34" sqref="I34"/>
+      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1494,12 +1490,12 @@
       <c r="T1" s="7"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="31"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1517,14 +1513,14 @@
       <c r="T2" s="7"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="30"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="31"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1542,12 +1538,12 @@
       <c r="T3" s="7"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="30"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="31"/>
       <c r="E4" s="2"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1566,12 +1562,12 @@
       <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="30"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="31"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1589,8 +1585,8 @@
       <c r="T5" s="7"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="8"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1707,7 +1703,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="130.19999999999999" thickBot="1">
+    <row r="10" spans="1:20" ht="144.6" thickBot="1">
       <c r="A10" s="12">
         <v>32</v>
       </c>
@@ -1727,7 +1723,7 @@
         <v>45224</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>87</v>
@@ -1752,7 +1748,7 @@
         <v>31</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="17"/>
       <c r="R10" s="18"/>
@@ -1781,7 +1777,7 @@
         <v>45224</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>90</v>
@@ -1806,7 +1802,7 @@
         <v>31</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="17"/>
       <c r="R11" s="18"/>
@@ -1815,7 +1811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="58.2" thickBot="1">
+    <row r="12" spans="1:20" ht="187.8" thickBot="1">
       <c r="A12" s="12">
         <v>48</v>
       </c>
@@ -1842,7 +1838,7 @@
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
       <c r="P12" s="17" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="Q12" s="17"/>
       <c r="R12" s="18" t="s">
@@ -1872,14 +1868,14 @@
       <c r="F13" s="15">
         <v>45224</v>
       </c>
-      <c r="G13" s="39" t="s">
-        <v>98</v>
+      <c r="G13" s="27" t="s">
+        <v>96</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J13" s="26" t="s">
         <v>31</v>
@@ -1916,14 +1912,14 @@
       <c r="F14" s="15">
         <v>45224</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="24" t="s">
         <v>99</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>101</v>
       </c>
       <c r="J14" s="26" t="s">
         <v>31</v>
@@ -1961,13 +1957,13 @@
         <v>45224</v>
       </c>
       <c r="G15" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>104</v>
       </c>
       <c r="J15" s="26" t="s">
         <v>31</v>
@@ -2005,13 +2001,13 @@
         <v>45224</v>
       </c>
       <c r="G16" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>107</v>
       </c>
       <c r="J16" s="26" t="s">
         <v>31</v>
@@ -2049,13 +2045,13 @@
         <v>45224</v>
       </c>
       <c r="G17" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="24" t="s">
         <v>111</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>113</v>
       </c>
       <c r="J17" s="26" t="s">
         <v>31</v>
@@ -2068,13 +2064,13 @@
         <v>31</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O17" s="17" t="s">
         <v>31</v>
       </c>
       <c r="P17" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="17"/>
       <c r="R17" s="18"/>
@@ -2107,7 +2103,7 @@
         <v>86</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
@@ -2141,13 +2137,13 @@
         <v>45224</v>
       </c>
       <c r="G19" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="24" t="s">
         <v>117</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>119</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>31</v>
@@ -2160,13 +2156,13 @@
         <v>31</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O19" s="17" t="s">
         <v>31</v>
       </c>
       <c r="P19" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="17"/>
       <c r="R19" s="18"/>
@@ -2195,13 +2191,13 @@
         <v>45224</v>
       </c>
       <c r="G20" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="24" t="s">
         <v>121</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>123</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>31</v>
@@ -2214,13 +2210,13 @@
         <v>31</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O20" s="17" t="s">
         <v>31</v>
       </c>
       <c r="P20" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q20" s="17"/>
       <c r="R20" s="18"/>
@@ -2249,13 +2245,13 @@
         <v>45224</v>
       </c>
       <c r="G21" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" s="24" t="s">
         <v>125</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>127</v>
       </c>
       <c r="J21" s="17" t="s">
         <v>31</v>
@@ -2268,13 +2264,13 @@
         <v>31</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O21" s="17" t="s">
         <v>31</v>
       </c>
       <c r="P21" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q21" s="17"/>
       <c r="R21" s="18"/>
@@ -2303,13 +2299,13 @@
         <v>45224</v>
       </c>
       <c r="G22" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="J22" s="17" t="s">
         <v>31</v>
@@ -2322,13 +2318,13 @@
         <v>31</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O22" s="17" t="s">
         <v>31</v>
       </c>
       <c r="P22" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="17"/>
       <c r="R22" s="18"/>
@@ -2357,13 +2353,13 @@
         <v>45224</v>
       </c>
       <c r="G23" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="I23" s="24" t="s">
         <v>134</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>136</v>
       </c>
       <c r="J23" s="17" t="s">
         <v>31</v>
@@ -2376,13 +2372,13 @@
         <v>31</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O23" s="17" t="s">
         <v>31</v>
       </c>
       <c r="P23" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="17"/>
       <c r="R23" s="18"/>
@@ -2415,7 +2411,7 @@
         <v>86</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
@@ -2449,13 +2445,13 @@
         <v>45224</v>
       </c>
       <c r="G25" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="I25" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>142</v>
       </c>
       <c r="J25" s="17" t="s">
         <v>31</v>
@@ -2468,13 +2464,13 @@
         <v>31</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O25" s="17" t="s">
         <v>31</v>
       </c>
       <c r="P25" s="26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="17"/>
       <c r="R25" s="18"/>
@@ -2503,13 +2499,13 @@
         <v>45224</v>
       </c>
       <c r="G26" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" s="24" t="s">
         <v>144</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>146</v>
       </c>
       <c r="J26" s="17" t="s">
         <v>31</v>
@@ -2522,13 +2518,13 @@
         <v>31</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O26" s="17" t="s">
         <v>31</v>
       </c>
       <c r="P26" s="26" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="17"/>
       <c r="R26" s="18"/>
@@ -2557,13 +2553,13 @@
         <v>45224</v>
       </c>
       <c r="G27" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="I27" s="24" t="s">
         <v>148</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>150</v>
       </c>
       <c r="J27" s="17" t="s">
         <v>31</v>
@@ -2576,13 +2572,13 @@
         <v>31</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O27" s="17" t="s">
         <v>31</v>
       </c>
       <c r="P27" s="26" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q27" s="17"/>
       <c r="R27" s="18"/>
@@ -2591,7 +2587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="115.8" thickBot="1">
+    <row r="28" spans="1:20" ht="231" thickBot="1">
       <c r="A28" s="12">
         <v>162</v>
       </c>
@@ -2611,13 +2607,13 @@
         <v>45224</v>
       </c>
       <c r="G28" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="I28" s="24" t="s">
         <v>152</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>154</v>
       </c>
       <c r="J28" s="17" t="s">
         <v>31</v>
@@ -2630,13 +2626,13 @@
         <v>31</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O28" s="17" t="s">
         <v>31</v>
       </c>
       <c r="P28" s="26" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q28" s="17"/>
       <c r="R28" s="18"/>
@@ -2665,13 +2661,13 @@
         <v>45224</v>
       </c>
       <c r="G29" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="I29" s="24" t="s">
         <v>156</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>158</v>
       </c>
       <c r="J29" s="17" t="s">
         <v>31</v>
@@ -2684,13 +2680,13 @@
         <v>31</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O29" s="17" t="s">
         <v>31</v>
       </c>
       <c r="P29" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q29" s="17"/>
       <c r="R29" s="18"/>
@@ -2719,13 +2715,13 @@
         <v>45224</v>
       </c>
       <c r="G30" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I30" s="24" t="s">
         <v>160</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>162</v>
       </c>
       <c r="J30" s="17" t="s">
         <v>31</v>
@@ -2738,13 +2734,13 @@
         <v>31</v>
       </c>
       <c r="N30" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O30" s="17" t="s">
         <v>31</v>
       </c>
       <c r="P30" s="26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q30" s="17"/>
       <c r="R30" s="18"/>
@@ -2773,13 +2769,13 @@
         <v>45224</v>
       </c>
       <c r="G31" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="I31" s="24" t="s">
         <v>164</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="I31" s="24" t="s">
-        <v>166</v>
       </c>
       <c r="J31" s="17" t="s">
         <v>31</v>
@@ -2792,13 +2788,13 @@
         <v>31</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O31" s="17" t="s">
         <v>31</v>
       </c>
       <c r="P31" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q31" s="17"/>
       <c r="R31" s="18"/>
@@ -2827,13 +2823,13 @@
         <v>45224</v>
       </c>
       <c r="G32" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="I32" s="24" t="s">
         <v>169</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="J32" s="17" t="s">
         <v>31</v>
@@ -2846,13 +2842,13 @@
         <v>31</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O32" s="17" t="s">
         <v>31</v>
       </c>
       <c r="P32" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q32" s="17"/>
       <c r="R32" s="18"/>
@@ -2881,13 +2877,13 @@
         <v>45224</v>
       </c>
       <c r="G33" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="I33" s="24" t="s">
         <v>174</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="I33" s="24" t="s">
-        <v>176</v>
       </c>
       <c r="J33" s="17" t="s">
         <v>31</v>
@@ -2900,13 +2896,13 @@
         <v>31</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O33" s="17" t="s">
         <v>31</v>
       </c>
       <c r="P33" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q33" s="17"/>
       <c r="R33" s="18"/>
@@ -2935,13 +2931,13 @@
         <v>45224</v>
       </c>
       <c r="G34" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="I34" s="24" t="s">
         <v>179</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="I34" s="24" t="s">
-        <v>181</v>
       </c>
       <c r="J34" s="17" t="s">
         <v>31</v>
@@ -2954,13 +2950,13 @@
         <v>31</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O34" s="17" t="s">
         <v>31</v>
       </c>
       <c r="P34" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q34" s="17"/>
       <c r="R34" s="18"/>
@@ -2993,7 +2989,7 @@
         <v>86</v>
       </c>
       <c r="K35" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
